--- a/experiments/graph_col.xlsx
+++ b/experiments/graph_col.xlsx
@@ -39,7 +39,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <color rgb="FF000000"/>
+      <name val="Sans"/>
+      <strike val="0"/>
+    </font>
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -57,7 +64,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border diagonalDown="0">
+      <bottom style="none">
+        <color rgb="FFC7C7C7"/>
+      </bottom>
+    </border>
     <border diagonalUp="0" diagonalDown="0">
       <left style="none">
         <color rgb="FFC7C7C7"/>
@@ -74,17 +86,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf/>
+    <xf fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="2" xfId="0">
       <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellXfs>
@@ -99,7 +111,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65"/>
@@ -113,7 +125,7 @@
     <col min="7" max="7" style="3" width="9.142308"/>
     <col min="8" max="8" style="2" width="9.142308"/>
     <col min="9" max="9" style="3" width="14.85625" bestFit="1" customWidth="1"/>
-    <col min="10" max="256" style="1"/>
+    <col min="10" max="16384" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -152,8 +164,8 @@
       <c r="B2">
         <v>309</v>
       </c>
-      <c r="C2">
-        <v>600.11</v>
+      <c r="C2" t="s">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>250</v>
@@ -171,7 +183,7 @@
         <v>452</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">

--- a/experiments/graph_col.xlsx
+++ b/experiments/graph_col.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3" count="3">
   <si>
     <t>TO</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>MEM</t>
-  </si>
-  <si>
-    <t>UNSAT</t>
   </si>
 </sst>
 </file>
@@ -65,10 +62,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="0">
-      <bottom style="none">
+    <border diagonalUp="0">
+      <right style="none">
         <color rgb="FFC7C7C7"/>
-      </bottom>
+      </right>
+      <top style="none">
+        <color rgb="FFC7C7C7"/>
+      </top>
     </border>
     <border diagonalUp="0" diagonalDown="0">
       <left style="none">
@@ -108,23 +108,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A22" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.142308"/>
-    <col min="2" max="2" style="2" width="9.142308"/>
-    <col min="3" max="3" style="3" width="9.142308"/>
-    <col min="4" max="4" style="2" width="9.142308"/>
+    <col min="1" max="1" style="1" width="17.57037" customWidth="1"/>
+    <col min="2" max="2" style="2" width="9.713702" customWidth="1"/>
+    <col min="3" max="3" style="3" width="8.856611" customWidth="1"/>
+    <col min="4" max="4" style="2" width="9.713702" customWidth="1"/>
     <col min="5" max="5" style="3" width="9.142308"/>
-    <col min="6" max="6" style="2" width="9.142308"/>
-    <col min="7" max="7" style="3" width="9.142308"/>
-    <col min="8" max="8" style="2" width="9.142308"/>
-    <col min="9" max="9" style="3" width="14.85625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" style="2" width="10.2851" customWidth="1"/>
+    <col min="7" max="7" style="3" width="11.42788" customWidth="1"/>
+    <col min="8" max="8" style="2" width="9.713702" customWidth="1"/>
+    <col min="9" max="9" style="3" width="10.14225" customWidth="1"/>
     <col min="10" max="16384" style="1"/>
   </cols>
   <sheetData>
@@ -710,153 +710,117 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="str">
-        <v>queen6_6-1-40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
+        <v>queen7_7-1-10</v>
+      </c>
+      <c r="B21">
+        <v>190</v>
       </c>
       <c r="C21">
-        <v>0.42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
+        <v>272.25</v>
+      </c>
+      <c r="D21">
+        <v>190</v>
       </c>
       <c r="E21">
-        <v>0.47</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>0.37</v>
-      </c>
-      <c r="H21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>0.407539</v>
+        <v>4.85</v>
+      </c>
+      <c r="F21">
+        <v>190</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>190</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="str">
-        <v>queen6_6-5-25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
+        <v>queen7_7-1-40</v>
+      </c>
+      <c r="B22">
+        <v>707</v>
       </c>
       <c r="C22">
-        <v>0.29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
+        <v>416.58</v>
+      </c>
+      <c r="D22">
+        <v>707</v>
       </c>
       <c r="E22">
-        <v>0.42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>0.45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>0.407832</v>
+        <v>7.88</v>
+      </c>
+      <c r="F22">
+        <v>707</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>736</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="str">
-        <v>queen7_7-1-10</v>
+        <v>queen7_7-5-25</v>
       </c>
       <c r="B23">
-        <v>190</v>
+        <v>556</v>
       </c>
       <c r="C23">
-        <v>272.25</v>
+        <v>370.94</v>
       </c>
       <c r="D23">
-        <v>190</v>
+        <v>556</v>
       </c>
       <c r="E23">
-        <v>4.85</v>
+        <v>4.38</v>
       </c>
       <c r="F23">
-        <v>190</v>
+        <v>556</v>
       </c>
       <c r="G23" t="s">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>190</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="str">
-        <v>queen7_7-1-40</v>
-      </c>
-      <c r="B24">
-        <v>707</v>
-      </c>
-      <c r="C24">
-        <v>416.58</v>
-      </c>
-      <c r="D24">
-        <v>707</v>
-      </c>
-      <c r="E24">
-        <v>7.88</v>
-      </c>
-      <c r="F24">
-        <v>707</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>736</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="str">
-        <v>queen7_7-5-25</v>
-      </c>
-      <c r="B25">
         <v>556</v>
       </c>
-      <c r="C25">
-        <v>370.94</v>
-      </c>
-      <c r="D25">
-        <v>556</v>
-      </c>
-      <c r="E25">
-        <v>4.38</v>
-      </c>
-      <c r="F25">
-        <v>556</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>556</v>
-      </c>
-      <c r="I25">
+      <c r="I23">
         <v>1229.67</v>
       </c>
+    </row>
+    <row r="1048575" spans="1:9">
+      <c r="B1048575" s="1"/>
+      <c r="C1048575" s="1"/>
+      <c r="D1048575" s="1"/>
+      <c r="E1048575" s="1"/>
+      <c r="F1048575" s="1"/>
+      <c r="G1048575" s="1"/>
+      <c r="H1048575" s="1"/>
+      <c r="I1048575" s="1"/>
+    </row>
+    <row r="1048576" spans="1:9">
+      <c r="B1048576" s="1"/>
+      <c r="C1048576" s="1"/>
+      <c r="D1048576" s="1"/>
+      <c r="E1048576" s="1"/>
+      <c r="F1048576" s="1"/>
+      <c r="G1048576" s="1"/>
+      <c r="H1048576" s="1"/>
+      <c r="I1048576" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <printOptions/>
   <pageMargins left="1" right="1" top="1.667" bottom="1.667" header="0.5118" footer="0.5118"/>
-  <pageSetup blackAndWhite="0" cellComments="atEnd" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1"/>
+  <pageSetup blackAndWhite="0" cellComments="atEnd" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1"/>
+  <rowBreaks count="0"/>
+  <colBreaks count="0"/>
 </worksheet>
 </file>